--- a/biology/Botanique/Begonia_aiensis/Begonia_aiensis.xlsx
+++ b/biology/Botanique/Begonia_aiensis/Begonia_aiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia aiensis est une espèce de plantes de la famille des Begoniaceae. Ce bégonia à port de bambou, originaire de Sarawak, sur l'île de Borneo, en Asie tropicale, a été décrit en 2017.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Malaisie, état du Sarawak[1] situé en Malaisie orientale. Endémique de Batang Ai.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Malaisie, état du Sarawak situé en Malaisie orientale. Endémique de Batang Ai.
 </t>
         </is>
       </c>
@@ -568,10 +584,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia aiensis fait partie de la section Petermannia du genre Begonia, famille des Begoniaceae.
-L'espèce a été décrite en 2017 par les botanistes Che Wei Lin et Ching I Peng. L'épithète spécifique aiensis signifie « de Batang Ai », et fait référence au lieu de découverte de l'espèce[2].
+L'espèce a été décrite en 2017 par les botanistes Che Wei Lin et Ching I Peng. L'épithète spécifique aiensis signifie « de Batang Ai », et fait référence au lieu de découverte de l'espèce.
 Publication originale : (en) Lin et al.: Eleven new species of Begonia from Sarawak, Taiwania Vol. 62, No. 3, September 2017. DOI: 10.6165/tai.2017.62.219.
 </t>
         </is>
